--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value365.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value365.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6950345709689688</v>
+        <v>1.019164323806763</v>
       </c>
       <c r="B1">
-        <v>1.211334167385284</v>
+        <v>3.282618045806885</v>
       </c>
       <c r="C1">
-        <v>2.691940059075343</v>
+        <v>3.772308826446533</v>
       </c>
       <c r="D1">
-        <v>3.28364260872594</v>
+        <v>2.006429672241211</v>
       </c>
       <c r="E1">
-        <v>1.388557090988048</v>
+        <v>1.183880805969238</v>
       </c>
     </row>
   </sheetData>
